--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_23_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_23_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1292209.907430046</v>
+        <v>1287156.232715424</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24831581.8819901</v>
+        <v>24831581.88199011</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4947797.162429705</v>
+        <v>4947797.162429707</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.629482616786683</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>84.99499061398264</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U11" t="n">
         <v>254.3180969423526</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>284.6744394189268</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,13 +1454,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>4.470588842467667</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>104.7712654402038</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T12" t="n">
         <v>153.1173860389223</v>
@@ -1514,7 +1514,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>41.00378322040071</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>167.7412420701844</v>
       </c>
       <c r="T13" t="n">
-        <v>194.730486940262</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9176257340516</v>
+        <v>167.7694497910149</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>366.4054518809552</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>254.3180969423526</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>34.44946690978276</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
@@ -1700,7 +1700,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>58.94334016289027</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>153.1173860389223</v>
+        <v>124.3297126570302</v>
       </c>
       <c r="U15" t="n">
         <v>195.3017141927292</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>71.33518219869813</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>54.95534032627424</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H16" t="n">
         <v>139.5473206610679</v>
       </c>
       <c r="I16" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>187.3499891596975</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>243.5407460173695</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1861,7 +1861,7 @@
         <v>402.4936277569416</v>
       </c>
       <c r="H17" t="n">
-        <v>285.807623447931</v>
+        <v>189.9396588209838</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>63.41392900535816</v>
       </c>
       <c r="G18" t="n">
         <v>104.7712654402038</v>
       </c>
       <c r="H18" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>77.58006396938444</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>2.300284969353329</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>122.1462011252448</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>41.10931561104033</v>
       </c>
       <c r="S19" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>233.0375990857039</v>
@@ -2061,7 +2061,7 @@
         <v>279.9176257340516</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.99499061398262</v>
+        <v>31.7478390653634</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.3180969423526</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>93.43536669727064</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2171,13 +2171,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>63.3051246821624</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>85.56893955755871</v>
+        <v>30.15566678099859</v>
       </c>
       <c r="T21" t="n">
         <v>153.1173860389223</v>
@@ -2225,7 +2225,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2250,10 +2250,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>161.3402760703906</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6146493334786</v>
+        <v>85.32730625503633</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>402.4936277569416</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>109.7310106070494</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>138.0251173159027</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,13 +2408,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>85.56893955755871</v>
       </c>
       <c r="T24" t="n">
-        <v>41.85978867858849</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U24" t="n">
         <v>195.3017141927292</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>156.1611389603359</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.5473206610679</v>
+        <v>5.402782342111933</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U25" t="n">
         <v>279.9176257340516</v>
       </c>
       <c r="V25" t="n">
-        <v>41.2965107033594</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11.11795859191007</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>332.2283041765677</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
         <v>132.6551205385437</v>
@@ -2642,16 +2642,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>93.59923004482002</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>104.7712654402038</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>153.1173860389223</v>
@@ -2699,7 +2699,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>153.2781861349631</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
         <v>157.8079400398083</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.61944205094119</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.49106784031279</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>279.9176257340516</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>125.9924879270049</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>275.7935755505484</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H29" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>115.7281862028015</v>
@@ -2885,7 +2885,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H30" t="n">
         <v>58.94334016289027</v>
@@ -2939,7 +2939,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
-        <v>43.45132710035748</v>
+        <v>71.33518219869792</v>
       </c>
     </row>
     <row r="31">
@@ -2955,19 +2955,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>81.65828779280601</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.6146493334786</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I31" t="n">
         <v>86.2153968693336</v>
@@ -3003,10 +3003,10 @@
         <v>167.7412420701844</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>45.50420568633812</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>109.8266336950317</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>148.0552497685166</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>61.74277537063352</v>
+        <v>61.74277537063397</v>
       </c>
       <c r="T33" t="n">
         <v>153.1173860389223</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>95.16810161258877</v>
       </c>
       <c r="H34" t="n">
-        <v>73.48765514049487</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>56.13969625820853</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>23.90793081456615</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3353,13 +3353,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>4.931274908144985</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>97.21779879744619</v>
       </c>
       <c r="H36" t="n">
         <v>58.94334016289027</v>
@@ -3404,7 +3404,7 @@
         <v>195.3017141927292</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
@@ -3429,22 +3429,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>117.7235634882416</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H37" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U37" t="n">
-        <v>252.9598258674456</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>270.1895213785563</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>285.807623447931</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>115.6143468677928</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H39" t="n">
         <v>58.94334016289027</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T39" t="n">
         <v>153.1173860389223</v>
       </c>
       <c r="U39" t="n">
-        <v>166.5140408108376</v>
+        <v>195.3017141927292</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>203.5473699382769</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>69.93060293013421</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U40" t="n">
-        <v>242.887859998375</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.4936277569416</v>
+        <v>17.39763314776811</v>
       </c>
       <c r="H41" t="n">
-        <v>47.33044944194526</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>124.6280787399236</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
@@ -3836,7 +3836,7 @@
         <v>104.7712654402038</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>130.2785223615877</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="43">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>93.1177500630627</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>139.5473206610679</v>
       </c>
       <c r="I43" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.0375990857039</v>
+        <v>44.17615682967883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3988,13 +3988,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H44" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>2.701627844419818</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>30.43569725304122</v>
       </c>
       <c r="Y44" t="n">
-        <v>309.6237125455486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
@@ -4070,7 +4070,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7712654402038</v>
+        <v>96.74422364158363</v>
       </c>
       <c r="H45" t="n">
         <v>58.94334016289027</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T45" t="n">
         <v>153.1173860389223</v>
@@ -4118,13 +4118,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>139.977187420514</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4137,13 +4137,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4152,10 +4152,10 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I46" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>233.0375990857039</v>
       </c>
       <c r="U46" t="n">
-        <v>145.4727890000318</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>111.8735611287611</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>446.1596794381292</v>
+        <v>452.3210588258723</v>
       </c>
       <c r="C11" t="n">
-        <v>36.03508875139925</v>
+        <v>452.3210588258723</v>
       </c>
       <c r="D11" t="n">
-        <v>36.03508875139925</v>
+        <v>452.3210588258723</v>
       </c>
       <c r="E11" t="n">
-        <v>36.03508875139925</v>
+        <v>452.3210588258723</v>
       </c>
       <c r="F11" t="n">
-        <v>36.03508875139925</v>
+        <v>452.3210588258723</v>
       </c>
       <c r="G11" t="n">
-        <v>36.03508875139925</v>
+        <v>45.76183886936559</v>
       </c>
       <c r="H11" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I11" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J11" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802979</v>
       </c>
       <c r="K11" t="n">
-        <v>326.0552168887698</v>
+        <v>326.0552168887699</v>
       </c>
       <c r="L11" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019887</v>
       </c>
       <c r="M11" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919408</v>
       </c>
       <c r="N11" t="n">
-        <v>1135.28612147837</v>
+        <v>1135.286121478371</v>
       </c>
       <c r="O11" t="n">
         <v>1401.21843916599</v>
@@ -5068,25 +5068,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S11" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T11" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U11" t="n">
-        <v>1544.867470961525</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="V11" t="n">
-        <v>1544.867470961525</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="W11" t="n">
-        <v>1544.867470961525</v>
+        <v>862.5422384903618</v>
       </c>
       <c r="X11" t="n">
-        <v>1257.317532154529</v>
+        <v>862.5422384903618</v>
       </c>
       <c r="Y11" t="n">
-        <v>856.3808591026186</v>
+        <v>862.5422384903618</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>681.7483020962025</v>
+        <v>460.4070108036223</v>
       </c>
       <c r="C12" t="n">
-        <v>547.7532308451481</v>
+        <v>326.411939552568</v>
       </c>
       <c r="D12" t="n">
-        <v>430.8560730645405</v>
+        <v>321.8961932470451</v>
       </c>
       <c r="E12" t="n">
-        <v>310.3632570568685</v>
+        <v>201.403377239373</v>
       </c>
       <c r="F12" t="n">
-        <v>201.4033772393731</v>
+        <v>201.403377239373</v>
       </c>
       <c r="G12" t="n">
-        <v>95.57381618866216</v>
+        <v>95.57381618866215</v>
       </c>
       <c r="H12" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I12" t="n">
-        <v>36.03508875139925</v>
+        <v>54.86182750109192</v>
       </c>
       <c r="J12" t="n">
-        <v>92.64425224016351</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K12" t="n">
-        <v>538.5784755387292</v>
+        <v>657.7213022333058</v>
       </c>
       <c r="L12" t="n">
-        <v>761.1709783472875</v>
+        <v>849.1406948242686</v>
       </c>
       <c r="M12" t="n">
-        <v>992.3879124412475</v>
+        <v>1080.357628918229</v>
       </c>
       <c r="N12" t="n">
-        <v>1235.559971964092</v>
+        <v>1323.529688441073</v>
       </c>
       <c r="O12" t="n">
-        <v>1449.01588185403</v>
+        <v>1536.985598331011</v>
       </c>
       <c r="P12" t="n">
-        <v>1612.503176317613</v>
+        <v>1700.472892794593</v>
       </c>
       <c r="Q12" t="n">
-        <v>1701.572828547836</v>
+        <v>1789.542545024817</v>
       </c>
       <c r="R12" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S12" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T12" t="n">
-        <v>1647.090411268021</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U12" t="n">
-        <v>1449.815952487486</v>
+        <v>1363.382680207123</v>
       </c>
       <c r="V12" t="n">
-        <v>1236.10442548052</v>
+        <v>1149.671153200157</v>
       </c>
       <c r="W12" t="n">
-        <v>1022.871257216849</v>
+        <v>936.437984936486</v>
       </c>
       <c r="X12" t="n">
-        <v>981.4532943679591</v>
+        <v>760.1120030753789</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0513347317891</v>
+        <v>600.7100434392089</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.5770297724885</v>
+        <v>527.5339209984533</v>
       </c>
       <c r="C13" t="n">
-        <v>361.5770297724885</v>
+        <v>356.4405485601698</v>
       </c>
       <c r="D13" t="n">
-        <v>361.5770297724885</v>
+        <v>196.9459038830798</v>
       </c>
       <c r="E13" t="n">
-        <v>200.666214640808</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="F13" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G13" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H13" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I13" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J13" t="n">
-        <v>117.5375436081382</v>
+        <v>52.53617997680179</v>
       </c>
       <c r="K13" t="n">
-        <v>382.8814865638252</v>
+        <v>111.5999293467746</v>
       </c>
       <c r="L13" t="n">
-        <v>777.7505969374326</v>
+        <v>462.6758375186922</v>
       </c>
       <c r="M13" t="n">
-        <v>1216.496642538361</v>
+        <v>901.4218831196206</v>
       </c>
       <c r="N13" t="n">
-        <v>1643.263066499485</v>
+        <v>1328.188307080745</v>
       </c>
       <c r="O13" t="n">
         <v>1722.536713467443</v>
       </c>
       <c r="P13" t="n">
-        <v>1782.648915084768</v>
+        <v>1782.648915084767</v>
       </c>
       <c r="Q13" t="n">
         <v>1801.754437569962</v>
@@ -5229,22 +5229,22 @@
         <v>1632.318839519271</v>
       </c>
       <c r="T13" t="n">
-        <v>1435.621377963451</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="U13" t="n">
-        <v>1152.876301464409</v>
+        <v>1227.463234593292</v>
       </c>
       <c r="V13" t="n">
-        <v>878.9905564039308</v>
+        <v>953.5774895328143</v>
       </c>
       <c r="W13" t="n">
-        <v>599.9208919128051</v>
+        <v>953.5774895328143</v>
       </c>
       <c r="X13" t="n">
-        <v>361.5770297724885</v>
+        <v>715.2336273924976</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.5770297724885</v>
+        <v>715.2336273924976</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1109.176390425297</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="C14" t="n">
-        <v>1109.176390425297</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="D14" t="n">
-        <v>1109.176390425297</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="E14" t="n">
-        <v>694.8361749421933</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="F14" t="n">
         <v>324.7296578907234</v>
@@ -5272,10 +5272,10 @@
         <v>324.7296578907234</v>
       </c>
       <c r="H14" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I14" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J14" t="n">
         <v>143.8778192802974</v>
@@ -5284,10 +5284,10 @@
         <v>326.0552168887696</v>
       </c>
       <c r="L14" t="n">
-        <v>567.0076014019883</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M14" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N14" t="n">
         <v>1135.28612147837</v>
@@ -5299,31 +5299,31 @@
         <v>1614.212614402881</v>
       </c>
       <c r="Q14" t="n">
-        <v>1754.652407274059</v>
+        <v>1754.652407274058</v>
       </c>
       <c r="R14" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S14" t="n">
-        <v>1715.900911697253</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T14" t="n">
-        <v>1715.900911697253</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U14" t="n">
-        <v>1459.013945088816</v>
+        <v>1544.867470961525</v>
       </c>
       <c r="V14" t="n">
-        <v>1109.176390425297</v>
+        <v>1510.070029638512</v>
       </c>
       <c r="W14" t="n">
-        <v>1109.176390425297</v>
+        <v>1126.309728773681</v>
       </c>
       <c r="X14" t="n">
-        <v>1109.176390425297</v>
+        <v>725.6663309426333</v>
       </c>
       <c r="Y14" t="n">
-        <v>1109.176390425297</v>
+        <v>324.7296578907234</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>547.7532308451481</v>
+        <v>575.9187410454915</v>
       </c>
       <c r="C15" t="n">
-        <v>547.7532308451481</v>
+        <v>441.9236697944372</v>
       </c>
       <c r="D15" t="n">
-        <v>430.8560730645405</v>
+        <v>325.0265120138296</v>
       </c>
       <c r="E15" t="n">
-        <v>310.3632570568685</v>
+        <v>204.5336960061576</v>
       </c>
       <c r="F15" t="n">
-        <v>201.4033772393731</v>
+        <v>95.57381618866215</v>
       </c>
       <c r="G15" t="n">
-        <v>95.57381618866216</v>
+        <v>95.57381618866215</v>
       </c>
       <c r="H15" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I15" t="n">
-        <v>54.86182750109194</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J15" t="n">
-        <v>111.4709909898562</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K15" t="n">
-        <v>287.3046569213417</v>
+        <v>569.7515857563242</v>
       </c>
       <c r="L15" t="n">
-        <v>478.7240495123045</v>
+        <v>761.170978347287</v>
       </c>
       <c r="M15" t="n">
-        <v>709.9409836062646</v>
+        <v>992.3879124412471</v>
       </c>
       <c r="N15" t="n">
-        <v>953.1130431291093</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O15" t="n">
-        <v>1166.568953019047</v>
+        <v>1449.015881854029</v>
       </c>
       <c r="P15" t="n">
-        <v>1612.503176317613</v>
+        <v>1612.503176317612</v>
       </c>
       <c r="Q15" t="n">
-        <v>1701.572828547836</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R15" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S15" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T15" t="n">
-        <v>1560.657138987659</v>
+        <v>1676.168869229527</v>
       </c>
       <c r="U15" t="n">
-        <v>1363.382680207124</v>
+        <v>1478.894410448993</v>
       </c>
       <c r="V15" t="n">
-        <v>1149.671153200158</v>
+        <v>1265.182883442027</v>
       </c>
       <c r="W15" t="n">
-        <v>936.4379849364865</v>
+        <v>1051.949715178355</v>
       </c>
       <c r="X15" t="n">
-        <v>760.1120030753793</v>
+        <v>875.6237333172481</v>
       </c>
       <c r="Y15" t="n">
-        <v>688.0562634807347</v>
+        <v>716.2217736810782</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.2081959084696</v>
+        <v>558.2744913283082</v>
       </c>
       <c r="C16" t="n">
-        <v>749.1148234701861</v>
+        <v>558.2744913283082</v>
       </c>
       <c r="D16" t="n">
-        <v>589.6201787930961</v>
+        <v>398.7798466512182</v>
       </c>
       <c r="E16" t="n">
-        <v>428.7093636614156</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="F16" t="n">
-        <v>264.0782377720069</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="G16" t="n">
-        <v>264.0782377720069</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="H16" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I16" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J16" t="n">
-        <v>52.53617997680181</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K16" t="n">
-        <v>111.5999293467747</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L16" t="n">
-        <v>513.2721529075728</v>
+        <v>784.5537101246234</v>
       </c>
       <c r="M16" t="n">
-        <v>952.0181985085013</v>
+        <v>878.3334062112664</v>
       </c>
       <c r="N16" t="n">
-        <v>1378.784622469625</v>
+        <v>973.0655287248051</v>
       </c>
       <c r="O16" t="n">
-        <v>1458.058269437583</v>
+        <v>1335.365269788488</v>
       </c>
       <c r="P16" t="n">
-        <v>1656.374954878931</v>
+        <v>1656.37495487893</v>
       </c>
       <c r="Q16" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="R16" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S16" t="n">
-        <v>1760.229876346689</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T16" t="n">
-        <v>1760.229876346689</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="U16" t="n">
-        <v>1570.987463054066</v>
+        <v>1349.573763020228</v>
       </c>
       <c r="V16" t="n">
-        <v>1570.987463054066</v>
+        <v>1075.68801795975</v>
       </c>
       <c r="W16" t="n">
-        <v>1570.987463054066</v>
+        <v>796.6183534686247</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.643600913749</v>
+        <v>558.2744913283082</v>
       </c>
       <c r="Y16" t="n">
-        <v>1107.907902302514</v>
+        <v>558.2744913283082</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1801.754437569962</v>
+        <v>1048.792765424326</v>
       </c>
       <c r="C17" t="n">
-        <v>1391.629846883232</v>
+        <v>1048.792765424326</v>
       </c>
       <c r="D17" t="n">
-        <v>1145.629093330333</v>
+        <v>1048.792765424326</v>
       </c>
       <c r="E17" t="n">
-        <v>731.2888778472302</v>
+        <v>634.452549941223</v>
       </c>
       <c r="F17" t="n">
-        <v>731.2888778472302</v>
+        <v>634.452549941223</v>
       </c>
       <c r="G17" t="n">
-        <v>324.7296578907234</v>
+        <v>227.8933299847162</v>
       </c>
       <c r="H17" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I17" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J17" t="n">
         <v>143.8778192802977</v>
       </c>
       <c r="K17" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887698</v>
       </c>
       <c r="L17" t="n">
         <v>567.0076014019885</v>
@@ -5530,10 +5530,10 @@
         <v>1135.28612147837</v>
       </c>
       <c r="O17" t="n">
-        <v>1401.218439165989</v>
+        <v>1401.21843916599</v>
       </c>
       <c r="P17" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q17" t="n">
         <v>1754.652407274058</v>
@@ -5542,25 +5542,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S17" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T17" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="U17" t="n">
-        <v>1801.754437569962</v>
+        <v>1459.013945088816</v>
       </c>
       <c r="V17" t="n">
-        <v>1801.754437569962</v>
+        <v>1459.013945088816</v>
       </c>
       <c r="W17" t="n">
-        <v>1801.754437569962</v>
+        <v>1459.013945088816</v>
       </c>
       <c r="X17" t="n">
-        <v>1801.754437569962</v>
+        <v>1459.013945088816</v>
       </c>
       <c r="Y17" t="n">
-        <v>1801.754437569962</v>
+        <v>1459.013945088816</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>681.7483020962022</v>
+        <v>460.4070108036225</v>
       </c>
       <c r="C18" t="n">
-        <v>547.753230845148</v>
+        <v>326.4119395525682</v>
       </c>
       <c r="D18" t="n">
-        <v>430.8560730645404</v>
+        <v>326.4119395525682</v>
       </c>
       <c r="E18" t="n">
-        <v>310.3632570568684</v>
+        <v>205.9191235448962</v>
       </c>
       <c r="F18" t="n">
-        <v>201.403377239373</v>
+        <v>141.8646498021101</v>
       </c>
       <c r="G18" t="n">
-        <v>95.57381618866214</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H18" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I18" t="n">
-        <v>36.03508875139924</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J18" t="n">
-        <v>92.6442522401635</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0510332309565</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L18" t="n">
-        <v>666.9852565295221</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M18" t="n">
-        <v>1080.357628918228</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N18" t="n">
-        <v>1323.529688441073</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O18" t="n">
-        <v>1536.98559833101</v>
+        <v>1449.01588185403</v>
       </c>
       <c r="P18" t="n">
-        <v>1700.472892794593</v>
+        <v>1612.503176317613</v>
       </c>
       <c r="Q18" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R18" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S18" t="n">
-        <v>1715.321165289599</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T18" t="n">
         <v>1560.657138987658</v>
       </c>
       <c r="U18" t="n">
-        <v>1363.382680207123</v>
+        <v>1363.382680207124</v>
       </c>
       <c r="V18" t="n">
-        <v>1149.671153200157</v>
+        <v>1149.671153200158</v>
       </c>
       <c r="W18" t="n">
-        <v>936.4379849364856</v>
+        <v>936.4379849364863</v>
       </c>
       <c r="X18" t="n">
-        <v>760.1120030753784</v>
+        <v>760.1120030753791</v>
       </c>
       <c r="Y18" t="n">
-        <v>681.7483020962022</v>
+        <v>600.7100434392091</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>330.5084623262936</v>
+        <v>38.35860892246322</v>
       </c>
       <c r="C19" t="n">
-        <v>159.4150898880101</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="D19" t="n">
-        <v>159.4150898880101</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="E19" t="n">
-        <v>159.4150898880101</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="F19" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G19" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H19" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I19" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J19" t="n">
-        <v>52.5361799768018</v>
+        <v>52.53617997680181</v>
       </c>
       <c r="K19" t="n">
         <v>111.5999293467747</v>
@@ -5682,16 +5682,16 @@
         <v>513.2721529075728</v>
       </c>
       <c r="M19" t="n">
-        <v>952.0181985085013</v>
+        <v>607.0518489942158</v>
       </c>
       <c r="N19" t="n">
-        <v>1046.75032102204</v>
+        <v>941.0168634017899</v>
       </c>
       <c r="O19" t="n">
         <v>1335.365269788488</v>
       </c>
       <c r="P19" t="n">
-        <v>1656.37495487893</v>
+        <v>1656.374954878931</v>
       </c>
       <c r="Q19" t="n">
         <v>1801.754437569962</v>
@@ -5700,25 +5700,25 @@
         <v>1760.229876346689</v>
       </c>
       <c r="S19" t="n">
-        <v>1590.794278295997</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="T19" t="n">
-        <v>1355.402764068013</v>
+        <v>1524.838362118705</v>
       </c>
       <c r="U19" t="n">
-        <v>1072.657687568971</v>
+        <v>1242.093285619663</v>
       </c>
       <c r="V19" t="n">
-        <v>1072.657687568971</v>
+        <v>968.2075405591852</v>
       </c>
       <c r="W19" t="n">
-        <v>793.5880230778455</v>
+        <v>689.1378760680595</v>
       </c>
       <c r="X19" t="n">
-        <v>555.2441609375289</v>
+        <v>450.7940139277429</v>
       </c>
       <c r="Y19" t="n">
-        <v>330.5084623262936</v>
+        <v>226.0583153165076</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1151.923381075122</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="C20" t="n">
-        <v>741.7987903883923</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="D20" t="n">
-        <v>741.7987903883923</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="E20" t="n">
         <v>327.4585749052889</v>
@@ -5752,16 +5752,16 @@
         <v>36.03508875139925</v>
       </c>
       <c r="J20" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K20" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887698</v>
       </c>
       <c r="L20" t="n">
-        <v>567.0076014019883</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M20" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N20" t="n">
         <v>1135.28612147837</v>
@@ -5779,25 +5779,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S20" t="n">
-        <v>1715.900911697253</v>
+        <v>1769.685913261515</v>
       </c>
       <c r="T20" t="n">
-        <v>1503.18950596363</v>
+        <v>1769.685913261515</v>
       </c>
       <c r="U20" t="n">
-        <v>1246.302539355193</v>
+        <v>1512.798946653078</v>
       </c>
       <c r="V20" t="n">
-        <v>1246.302539355193</v>
+        <v>1512.798946653078</v>
       </c>
       <c r="W20" t="n">
-        <v>1246.302539355193</v>
+        <v>1129.038645788246</v>
       </c>
       <c r="X20" t="n">
-        <v>1151.923381075122</v>
+        <v>728.3952479571988</v>
       </c>
       <c r="Y20" t="n">
-        <v>1151.923381075122</v>
+        <v>327.4585749052889</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>636.7329926647296</v>
+        <v>516.3800136082286</v>
       </c>
       <c r="C21" t="n">
-        <v>502.7379214136753</v>
+        <v>382.3849423571743</v>
       </c>
       <c r="D21" t="n">
-        <v>385.8407636330678</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E21" t="n">
-        <v>265.3479476253957</v>
+        <v>144.9949685688947</v>
       </c>
       <c r="F21" t="n">
-        <v>201.4033772393731</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G21" t="n">
-        <v>95.57381618866216</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H21" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="I21" t="n">
-        <v>36.03508875139925</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J21" t="n">
-        <v>92.64425224016351</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0510332309565</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L21" t="n">
-        <v>412.4704258219193</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M21" t="n">
-        <v>643.6873599158794</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N21" t="n">
-        <v>886.8594194387241</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O21" t="n">
-        <v>1100.315329328662</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P21" t="n">
-        <v>1263.802623792245</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q21" t="n">
         <v>1701.572828547836</v>
@@ -5858,25 +5858,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S21" t="n">
-        <v>1715.3211652896</v>
+        <v>1771.294168094206</v>
       </c>
       <c r="T21" t="n">
-        <v>1560.657138987658</v>
+        <v>1616.630141792265</v>
       </c>
       <c r="U21" t="n">
-        <v>1363.382680207124</v>
+        <v>1419.35568301173</v>
       </c>
       <c r="V21" t="n">
-        <v>1149.671153200158</v>
+        <v>1205.644156004764</v>
       </c>
       <c r="W21" t="n">
-        <v>936.4379849364863</v>
+        <v>992.4109877410924</v>
       </c>
       <c r="X21" t="n">
-        <v>936.4379849364863</v>
+        <v>816.0850058799853</v>
       </c>
       <c r="Y21" t="n">
-        <v>777.0360253003163</v>
+        <v>656.6830462438153</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>856.7813203963009</v>
+        <v>778.3542451252724</v>
       </c>
       <c r="C22" t="n">
-        <v>685.6879479580174</v>
+        <v>607.2608726869889</v>
       </c>
       <c r="D22" t="n">
-        <v>526.1933032809275</v>
+        <v>447.766228009899</v>
       </c>
       <c r="E22" t="n">
-        <v>365.2824881492469</v>
+        <v>286.8554128782184</v>
       </c>
       <c r="F22" t="n">
-        <v>202.3125123205695</v>
+        <v>122.2242869888097</v>
       </c>
       <c r="G22" t="n">
         <v>36.03508875139925</v>
@@ -5913,19 +5913,19 @@
         <v>117.5375436081382</v>
       </c>
       <c r="K22" t="n">
-        <v>382.8814865638252</v>
+        <v>176.6012929781111</v>
       </c>
       <c r="L22" t="n">
-        <v>784.5537101246234</v>
+        <v>462.6758375186921</v>
       </c>
       <c r="M22" t="n">
-        <v>878.3334062112664</v>
+        <v>901.4218831196206</v>
       </c>
       <c r="N22" t="n">
-        <v>1305.099830172391</v>
+        <v>1328.188307080745</v>
       </c>
       <c r="O22" t="n">
-        <v>1699.448236559089</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P22" t="n">
         <v>1782.648915084768</v>
@@ -5934,28 +5934,28 @@
         <v>1801.754437569962</v>
       </c>
       <c r="R22" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S22" t="n">
-        <v>1590.794278295998</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T22" t="n">
-        <v>1355.402764068014</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U22" t="n">
-        <v>1355.402764068014</v>
+        <v>1519.00936107092</v>
       </c>
       <c r="V22" t="n">
-        <v>1081.517019007536</v>
+        <v>1245.123616010442</v>
       </c>
       <c r="W22" t="n">
-        <v>1081.517019007536</v>
+        <v>966.0539515193168</v>
       </c>
       <c r="X22" t="n">
-        <v>1081.517019007536</v>
+        <v>966.0539515193168</v>
       </c>
       <c r="Y22" t="n">
-        <v>856.7813203963009</v>
+        <v>966.0539515193168</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1261.398454097949</v>
+        <v>1391.533257905473</v>
       </c>
       <c r="C23" t="n">
-        <v>1261.398454097949</v>
+        <v>1391.533257905473</v>
       </c>
       <c r="D23" t="n">
-        <v>856.9345241910094</v>
+        <v>1391.533257905473</v>
       </c>
       <c r="E23" t="n">
-        <v>442.594308707906</v>
+        <v>977.1930424223692</v>
       </c>
       <c r="F23" t="n">
-        <v>442.594308707906</v>
+        <v>556.1626303760568</v>
       </c>
       <c r="G23" t="n">
-        <v>36.03508875139925</v>
+        <v>149.60341041955</v>
       </c>
       <c r="H23" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I23" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J23" t="n">
         <v>143.8778192802977</v>
       </c>
       <c r="K23" t="n">
-        <v>326.0552168887695</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L23" t="n">
-        <v>567.0076014019884</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M23" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N23" t="n">
         <v>1135.28612147837</v>
@@ -6031,10 +6031,10 @@
         <v>1801.754437569962</v>
       </c>
       <c r="X23" t="n">
-        <v>1662.335127149859</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="Y23" t="n">
-        <v>1261.398454097949</v>
+        <v>1801.754437569962</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>572.788422278707</v>
+        <v>516.3800136082286</v>
       </c>
       <c r="C24" t="n">
-        <v>438.7933510276526</v>
+        <v>382.3849423571743</v>
       </c>
       <c r="D24" t="n">
-        <v>321.8961932470451</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E24" t="n">
-        <v>201.4033772393731</v>
+        <v>144.9949685688946</v>
       </c>
       <c r="F24" t="n">
-        <v>201.4033772393731</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G24" t="n">
-        <v>95.57381618866216</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H24" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I24" t="n">
-        <v>36.03508875139925</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J24" t="n">
-        <v>274.79969053491</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K24" t="n">
-        <v>403.206471525703</v>
+        <v>569.7515857563242</v>
       </c>
       <c r="L24" t="n">
-        <v>849.1406948242687</v>
+        <v>761.170978347287</v>
       </c>
       <c r="M24" t="n">
-        <v>1080.357628918229</v>
+        <v>992.3879124412471</v>
       </c>
       <c r="N24" t="n">
-        <v>1323.529688441073</v>
+        <v>1235.559971964092</v>
       </c>
       <c r="O24" t="n">
-        <v>1536.985598331011</v>
+        <v>1449.015881854029</v>
       </c>
       <c r="P24" t="n">
-        <v>1700.472892794594</v>
+        <v>1612.503176317612</v>
       </c>
       <c r="Q24" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R24" t="n">
         <v>1801.754437569962</v>
@@ -6098,22 +6098,22 @@
         <v>1715.3211652896</v>
       </c>
       <c r="T24" t="n">
-        <v>1673.038550462743</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U24" t="n">
-        <v>1475.764091682208</v>
+        <v>1363.382680207123</v>
       </c>
       <c r="V24" t="n">
-        <v>1262.052564675242</v>
+        <v>1205.644156004764</v>
       </c>
       <c r="W24" t="n">
-        <v>1048.819396411571</v>
+        <v>992.4109877410924</v>
       </c>
       <c r="X24" t="n">
-        <v>872.4934145504636</v>
+        <v>816.0850058799853</v>
       </c>
       <c r="Y24" t="n">
-        <v>713.0914549142936</v>
+        <v>656.6830462438153</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>336.4866229851235</v>
+        <v>377.2169429802146</v>
       </c>
       <c r="C25" t="n">
-        <v>336.4866229851235</v>
+        <v>206.1235705419311</v>
       </c>
       <c r="D25" t="n">
-        <v>176.9919783080336</v>
+        <v>206.1235705419311</v>
       </c>
       <c r="E25" t="n">
-        <v>176.9919783080336</v>
+        <v>206.1235705419311</v>
       </c>
       <c r="F25" t="n">
-        <v>176.9919783080336</v>
+        <v>41.49244465252241</v>
       </c>
       <c r="G25" t="n">
-        <v>176.9919783080336</v>
+        <v>41.49244465252241</v>
       </c>
       <c r="H25" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I25" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J25" t="n">
         <v>117.5375436081382</v>
       </c>
       <c r="K25" t="n">
-        <v>333.873279211965</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L25" t="n">
-        <v>735.5455027727631</v>
+        <v>784.5537101246234</v>
       </c>
       <c r="M25" t="n">
-        <v>829.3251988594061</v>
+        <v>1223.299755725552</v>
       </c>
       <c r="N25" t="n">
-        <v>1256.09162282053</v>
+        <v>1516.989106293648</v>
       </c>
       <c r="O25" t="n">
-        <v>1335.365269788488</v>
+        <v>1596.262753261606</v>
       </c>
       <c r="P25" t="n">
-        <v>1656.374954878931</v>
+        <v>1656.37495487893</v>
       </c>
       <c r="Q25" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R25" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S25" t="n">
-        <v>1590.794278295998</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T25" t="n">
-        <v>1590.794278295998</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="U25" t="n">
-        <v>1308.049201796956</v>
+        <v>1114.182248792245</v>
       </c>
       <c r="V25" t="n">
-        <v>1266.335554621845</v>
+        <v>840.2965037317665</v>
       </c>
       <c r="W25" t="n">
-        <v>987.2658901307198</v>
+        <v>840.2965037317665</v>
       </c>
       <c r="X25" t="n">
-        <v>748.9220279904032</v>
+        <v>601.9526415914499</v>
       </c>
       <c r="Y25" t="n">
-        <v>524.1863293791679</v>
+        <v>377.2169429802146</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>450.3753042345026</v>
+        <v>778.1784543408028</v>
       </c>
       <c r="C26" t="n">
-        <v>450.3753042345026</v>
+        <v>778.1784543408028</v>
       </c>
       <c r="D26" t="n">
-        <v>450.3753042345026</v>
+        <v>778.1784543408028</v>
       </c>
       <c r="E26" t="n">
-        <v>36.03508875139925</v>
+        <v>778.1784543408028</v>
       </c>
       <c r="F26" t="n">
-        <v>36.03508875139925</v>
+        <v>442.594308707906</v>
       </c>
       <c r="G26" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H26" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I26" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J26" t="n">
         <v>143.8778192802977</v>
       </c>
       <c r="K26" t="n">
-        <v>326.0552168887698</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L26" t="n">
         <v>567.0076014019885</v>
@@ -6253,25 +6253,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S26" t="n">
-        <v>1715.900911697253</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T26" t="n">
-        <v>1503.18950596363</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="U26" t="n">
-        <v>1246.302539355193</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="V26" t="n">
-        <v>1246.302539355193</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="W26" t="n">
-        <v>862.542238490362</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="X26" t="n">
-        <v>862.542238490362</v>
+        <v>1188.399634005292</v>
       </c>
       <c r="Y26" t="n">
-        <v>461.6055654384521</v>
+        <v>1188.399634005292</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.2095746589395</v>
+        <v>546.8402830839844</v>
       </c>
       <c r="C27" t="n">
-        <v>488.2145034078852</v>
+        <v>412.8452118329301</v>
       </c>
       <c r="D27" t="n">
-        <v>371.3173456272776</v>
+        <v>295.9480540523226</v>
       </c>
       <c r="E27" t="n">
-        <v>250.8245296196056</v>
+        <v>201.403377239373</v>
       </c>
       <c r="F27" t="n">
-        <v>141.8646498021101</v>
+        <v>201.403377239373</v>
       </c>
       <c r="G27" t="n">
-        <v>36.03508875139925</v>
+        <v>95.57381618866215</v>
       </c>
       <c r="H27" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I27" t="n">
-        <v>54.86182750109194</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J27" t="n">
-        <v>111.4709909898562</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K27" t="n">
-        <v>557.4052142884219</v>
+        <v>483.5461759552824</v>
       </c>
       <c r="L27" t="n">
-        <v>748.8246068793848</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M27" t="n">
-        <v>1080.357628918229</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N27" t="n">
-        <v>1323.529688441073</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O27" t="n">
-        <v>1536.985598331011</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P27" t="n">
-        <v>1700.472892794594</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q27" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R27" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S27" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T27" t="n">
-        <v>1560.657138987658</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U27" t="n">
-        <v>1363.382680207124</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V27" t="n">
-        <v>1149.671153200158</v>
+        <v>1236.104425480519</v>
       </c>
       <c r="W27" t="n">
-        <v>936.4379849364863</v>
+        <v>1022.871257216848</v>
       </c>
       <c r="X27" t="n">
-        <v>781.6115342951094</v>
+        <v>846.5452753557411</v>
       </c>
       <c r="Y27" t="n">
-        <v>622.2095746589395</v>
+        <v>687.1433157195711</v>
       </c>
     </row>
     <row r="28">
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.0690157667584</v>
+        <v>98.14727848908893</v>
       </c>
       <c r="C28" t="n">
-        <v>237.9756433284749</v>
+        <v>98.14727848908893</v>
       </c>
       <c r="D28" t="n">
-        <v>237.9756433284749</v>
+        <v>98.14727848908893</v>
       </c>
       <c r="E28" t="n">
-        <v>77.06482819679439</v>
+        <v>98.14727848908893</v>
       </c>
       <c r="F28" t="n">
-        <v>77.06482819679439</v>
+        <v>98.14727848908893</v>
       </c>
       <c r="G28" t="n">
-        <v>77.06482819679439</v>
+        <v>98.14727848908893</v>
       </c>
       <c r="H28" t="n">
-        <v>36.03508875139925</v>
+        <v>98.14727848908893</v>
       </c>
       <c r="I28" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J28" t="n">
         <v>117.5375436081382</v>
       </c>
       <c r="K28" t="n">
-        <v>319.8455829615477</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L28" t="n">
-        <v>407.5386952873228</v>
+        <v>470.5745988896003</v>
       </c>
       <c r="M28" t="n">
-        <v>846.2847408882512</v>
+        <v>909.3206444905288</v>
       </c>
       <c r="N28" t="n">
-        <v>941.0168634017899</v>
+        <v>1328.188307080744</v>
       </c>
       <c r="O28" t="n">
-        <v>1335.365269788488</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P28" t="n">
-        <v>1656.374954878931</v>
+        <v>1782.648915084767</v>
       </c>
       <c r="Q28" t="n">
         <v>1801.754437569962</v>
@@ -6420,16 +6420,16 @@
         <v>1114.182248792245</v>
       </c>
       <c r="V28" t="n">
-        <v>1114.182248792245</v>
+        <v>840.2965037317665</v>
       </c>
       <c r="W28" t="n">
-        <v>835.1125843011193</v>
+        <v>561.2268392406409</v>
       </c>
       <c r="X28" t="n">
-        <v>596.7687221608028</v>
+        <v>322.8829771003242</v>
       </c>
       <c r="Y28" t="n">
-        <v>596.7687221608028</v>
+        <v>98.14727848908893</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1007.772957040641</v>
+        <v>990.8898600744255</v>
       </c>
       <c r="C29" t="n">
-        <v>1007.772957040641</v>
+        <v>863.6247207542185</v>
       </c>
       <c r="D29" t="n">
-        <v>603.3090271337016</v>
+        <v>863.6247207542185</v>
       </c>
       <c r="E29" t="n">
-        <v>324.7296578907234</v>
+        <v>863.6247207542185</v>
       </c>
       <c r="F29" t="n">
-        <v>324.7296578907234</v>
+        <v>442.594308707906</v>
       </c>
       <c r="G29" t="n">
-        <v>324.7296578907234</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H29" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I29" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J29" t="n">
         <v>143.8778192802977</v>
       </c>
       <c r="K29" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887698</v>
       </c>
       <c r="L29" t="n">
         <v>567.0076014019885</v>
@@ -6502,13 +6502,13 @@
         <v>1801.754437569962</v>
       </c>
       <c r="W29" t="n">
-        <v>1417.994136705131</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="X29" t="n">
-        <v>1417.994136705131</v>
+        <v>1401.111039738915</v>
       </c>
       <c r="Y29" t="n">
-        <v>1417.994136705131</v>
+        <v>1401.111039738915</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>575.9187410454915</v>
+        <v>547.7532308451481</v>
       </c>
       <c r="C30" t="n">
-        <v>441.9236697944372</v>
+        <v>547.7532308451481</v>
       </c>
       <c r="D30" t="n">
-        <v>325.0265120138296</v>
+        <v>430.8560730645405</v>
       </c>
       <c r="E30" t="n">
-        <v>204.5336960061576</v>
+        <v>310.3632570568685</v>
       </c>
       <c r="F30" t="n">
-        <v>95.57381618866215</v>
+        <v>201.4033772393731</v>
       </c>
       <c r="G30" t="n">
-        <v>95.57381618866215</v>
+        <v>95.57381618866216</v>
       </c>
       <c r="H30" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I30" t="n">
-        <v>36.03508875139924</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J30" t="n">
-        <v>92.6442522401635</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0510332309565</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L30" t="n">
-        <v>412.4704258219193</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M30" t="n">
-        <v>643.6873599158794</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N30" t="n">
-        <v>886.8594194387241</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O30" t="n">
-        <v>1100.315329328662</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P30" t="n">
-        <v>1343.608321726251</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q30" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R30" t="n">
         <v>1801.754437569962</v>
@@ -6575,19 +6575,19 @@
         <v>1560.657138987658</v>
       </c>
       <c r="U30" t="n">
-        <v>1363.382680207123</v>
+        <v>1363.382680207124</v>
       </c>
       <c r="V30" t="n">
-        <v>1149.671153200157</v>
+        <v>1149.671153200158</v>
       </c>
       <c r="W30" t="n">
-        <v>936.4379849364858</v>
+        <v>936.4379849364863</v>
       </c>
       <c r="X30" t="n">
-        <v>760.1120030753787</v>
+        <v>760.1120030753791</v>
       </c>
       <c r="Y30" t="n">
-        <v>716.2217736810782</v>
+        <v>688.0562634807347</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>702.4699078825487</v>
+        <v>601.4490337794607</v>
       </c>
       <c r="C31" t="n">
-        <v>531.3765354442652</v>
+        <v>430.3556613411772</v>
       </c>
       <c r="D31" t="n">
-        <v>371.8818907671752</v>
+        <v>430.3556613411772</v>
       </c>
       <c r="E31" t="n">
-        <v>371.8818907671752</v>
+        <v>430.3556613411772</v>
       </c>
       <c r="F31" t="n">
-        <v>289.3987717845429</v>
+        <v>430.3556613411772</v>
       </c>
       <c r="G31" t="n">
-        <v>123.1213482153726</v>
+        <v>264.0782377720069</v>
       </c>
       <c r="H31" t="n">
         <v>123.1213482153726</v>
       </c>
       <c r="I31" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J31" t="n">
-        <v>52.5361799768018</v>
+        <v>52.53617997680181</v>
       </c>
       <c r="K31" t="n">
         <v>111.5999293467747</v>
       </c>
       <c r="L31" t="n">
-        <v>199.2930416725498</v>
+        <v>513.2721529075728</v>
       </c>
       <c r="M31" t="n">
-        <v>638.0390872734782</v>
+        <v>952.0181985085013</v>
       </c>
       <c r="N31" t="n">
-        <v>1064.805511234602</v>
+        <v>1378.784622469625</v>
       </c>
       <c r="O31" t="n">
-        <v>1459.153917621301</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P31" t="n">
-        <v>1656.37495487893</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q31" t="n">
         <v>1801.754437569962</v>
@@ -6651,22 +6651,22 @@
         <v>1632.318839519271</v>
       </c>
       <c r="T31" t="n">
-        <v>1632.318839519271</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="U31" t="n">
-        <v>1632.318839519271</v>
+        <v>1114.182248792245</v>
       </c>
       <c r="V31" t="n">
-        <v>1632.318839519271</v>
+        <v>1114.182248792245</v>
       </c>
       <c r="W31" t="n">
-        <v>1353.249175028145</v>
+        <v>835.1125843011193</v>
       </c>
       <c r="X31" t="n">
-        <v>1114.905312887828</v>
+        <v>789.1487401735051</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.1696142765931</v>
+        <v>789.1487401735051</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1000.174366687005</v>
+        <v>1690.818443938617</v>
       </c>
       <c r="C32" t="n">
-        <v>590.0497760002747</v>
+        <v>1280.693853251887</v>
       </c>
       <c r="D32" t="n">
-        <v>185.5858460933352</v>
+        <v>1280.693853251887</v>
       </c>
       <c r="E32" t="n">
-        <v>36.03508875139924</v>
+        <v>866.353637768784</v>
       </c>
       <c r="F32" t="n">
-        <v>36.03508875139924</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="G32" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H32" t="n">
-        <v>36.03508875139924</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I32" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J32" t="n">
-        <v>143.877819280297</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K32" t="n">
-        <v>326.0552168887691</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L32" t="n">
-        <v>567.0076014019879</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M32" t="n">
-        <v>847.9396778919397</v>
+        <v>847.9396778919403</v>
       </c>
       <c r="N32" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O32" t="n">
-        <v>1401.218439165989</v>
+        <v>1401.21843916599</v>
       </c>
       <c r="P32" t="n">
-        <v>1614.21261440288</v>
+        <v>1614.212614402881</v>
       </c>
       <c r="Q32" t="n">
         <v>1754.652407274058</v>
@@ -6742,10 +6742,10 @@
         <v>1801.754437569962</v>
       </c>
       <c r="X32" t="n">
-        <v>1401.111039738915</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000.174366687005</v>
+        <v>1801.754437569962</v>
       </c>
     </row>
     <row r="33">
@@ -6767,40 +6767,40 @@
         <v>310.3632570568685</v>
       </c>
       <c r="F33" t="n">
-        <v>201.403377239373</v>
+        <v>201.4033772393731</v>
       </c>
       <c r="G33" t="n">
-        <v>95.57381618866215</v>
+        <v>95.57381618866216</v>
       </c>
       <c r="H33" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I33" t="n">
-        <v>54.86182750109193</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J33" t="n">
-        <v>111.4709909898562</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K33" t="n">
-        <v>239.8777719806492</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L33" t="n">
-        <v>431.297164571612</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M33" t="n">
-        <v>877.2313878701776</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N33" t="n">
-        <v>1120.403447393022</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O33" t="n">
-        <v>1536.985598331011</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P33" t="n">
-        <v>1700.472892794593</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q33" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R33" t="n">
         <v>1801.754437569962</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>281.3584158770513</v>
+        <v>519.7022780173684</v>
       </c>
       <c r="C34" t="n">
-        <v>110.2650434387678</v>
+        <v>519.7022780173684</v>
       </c>
       <c r="D34" t="n">
-        <v>110.2650434387678</v>
+        <v>360.2076333402784</v>
       </c>
       <c r="E34" t="n">
-        <v>110.2650434387678</v>
+        <v>360.2076333402784</v>
       </c>
       <c r="F34" t="n">
-        <v>110.2650434387678</v>
+        <v>360.2076333402784</v>
       </c>
       <c r="G34" t="n">
-        <v>110.2650434387678</v>
+        <v>264.0782377720069</v>
       </c>
       <c r="H34" t="n">
-        <v>36.03508875139924</v>
+        <v>123.1213482153726</v>
       </c>
       <c r="I34" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J34" t="n">
-        <v>117.5375436081382</v>
+        <v>52.53617997680181</v>
       </c>
       <c r="K34" t="n">
-        <v>382.8814865638252</v>
+        <v>111.5999293467747</v>
       </c>
       <c r="L34" t="n">
-        <v>470.5745988896003</v>
+        <v>513.2721529075728</v>
       </c>
       <c r="M34" t="n">
-        <v>564.3542949762432</v>
+        <v>901.4218831196206</v>
       </c>
       <c r="N34" t="n">
-        <v>991.1207189373674</v>
+        <v>1328.188307080745</v>
       </c>
       <c r="O34" t="n">
-        <v>1335.365269788488</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P34" t="n">
-        <v>1656.37495487893</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q34" t="n">
         <v>1801.754437569962</v>
@@ -6885,7 +6885,7 @@
         <v>1760.229876346689</v>
       </c>
       <c r="S34" t="n">
-        <v>1590.794278295997</v>
+        <v>1590.794278295998</v>
       </c>
       <c r="T34" t="n">
         <v>1355.402764068014</v>
@@ -6894,16 +6894,16 @@
         <v>1072.657687568972</v>
       </c>
       <c r="V34" t="n">
-        <v>798.7719425084936</v>
+        <v>798.771942508494</v>
       </c>
       <c r="W34" t="n">
-        <v>519.7022780173679</v>
+        <v>519.7022780173684</v>
       </c>
       <c r="X34" t="n">
-        <v>281.3584158770513</v>
+        <v>519.7022780173684</v>
       </c>
       <c r="Y34" t="n">
-        <v>281.3584158770513</v>
+        <v>519.7022780173684</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>384.1653388024693</v>
+        <v>1281.530306967545</v>
       </c>
       <c r="C35" t="n">
-        <v>327.4585749052889</v>
+        <v>871.405716280815</v>
       </c>
       <c r="D35" t="n">
-        <v>327.4585749052889</v>
+        <v>871.405716280815</v>
       </c>
       <c r="E35" t="n">
-        <v>327.4585749052889</v>
+        <v>457.0655007977117</v>
       </c>
       <c r="F35" t="n">
-        <v>327.4585749052889</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G35" t="n">
-        <v>327.4585749052889</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H35" t="n">
-        <v>38.76400576596473</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I35" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J35" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K35" t="n">
-        <v>326.0552168887696</v>
+        <v>326.05521688877</v>
       </c>
       <c r="L35" t="n">
-        <v>567.0076014019883</v>
+        <v>567.0076014019889</v>
       </c>
       <c r="M35" t="n">
-        <v>847.9396778919399</v>
+        <v>847.9396778919406</v>
       </c>
       <c r="N35" t="n">
-        <v>1135.28612147837</v>
+        <v>1135.286121478371</v>
       </c>
       <c r="O35" t="n">
         <v>1401.21843916599</v>
@@ -6964,25 +6964,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S35" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T35" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="U35" t="n">
-        <v>1544.867470961525</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="V35" t="n">
-        <v>1195.029916298006</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="W35" t="n">
-        <v>1195.029916298006</v>
+        <v>1691.751486632034</v>
       </c>
       <c r="X35" t="n">
-        <v>794.3865184669587</v>
+        <v>1691.751486632034</v>
       </c>
       <c r="Y35" t="n">
-        <v>794.3865184669587</v>
+        <v>1691.751486632034</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>460.4070108036225</v>
+        <v>674.1185378105887</v>
       </c>
       <c r="C36" t="n">
-        <v>326.4119395525682</v>
+        <v>540.1234665595343</v>
       </c>
       <c r="D36" t="n">
-        <v>209.5147817719606</v>
+        <v>423.2263087789268</v>
       </c>
       <c r="E36" t="n">
-        <v>204.5336960061576</v>
+        <v>302.7334927712548</v>
       </c>
       <c r="F36" t="n">
-        <v>95.57381618866216</v>
+        <v>193.7736129537593</v>
       </c>
       <c r="G36" t="n">
         <v>95.57381618866216</v>
@@ -7037,7 +7037,7 @@
         <v>1282.629362541937</v>
       </c>
       <c r="Q36" t="n">
-        <v>1728.563585840503</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R36" t="n">
         <v>1801.754437569962</v>
@@ -7052,16 +7052,16 @@
         <v>1363.382680207124</v>
       </c>
       <c r="V36" t="n">
-        <v>1149.671153200158</v>
+        <v>1363.382680207124</v>
       </c>
       <c r="W36" t="n">
-        <v>936.4379849364863</v>
+        <v>1150.149511943453</v>
       </c>
       <c r="X36" t="n">
-        <v>760.1120030753791</v>
+        <v>973.8235300823453</v>
       </c>
       <c r="Y36" t="n">
-        <v>600.7100434392091</v>
+        <v>814.4215704461753</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>596.082425341971</v>
+        <v>492.3185751510163</v>
       </c>
       <c r="C37" t="n">
-        <v>424.9890529036874</v>
+        <v>321.2252027127328</v>
       </c>
       <c r="D37" t="n">
-        <v>424.9890529036874</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="E37" t="n">
-        <v>264.0782377720069</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="F37" t="n">
-        <v>264.0782377720069</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="G37" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H37" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I37" t="n">
         <v>36.03508875139925</v>
@@ -7101,46 +7101,46 @@
         <v>111.5999293467747</v>
       </c>
       <c r="L37" t="n">
-        <v>513.2721529075728</v>
+        <v>462.6758375186921</v>
       </c>
       <c r="M37" t="n">
-        <v>952.0181985085013</v>
+        <v>901.4218831196206</v>
       </c>
       <c r="N37" t="n">
-        <v>1378.784622469625</v>
+        <v>1328.188307080745</v>
       </c>
       <c r="O37" t="n">
-        <v>1458.058269437583</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P37" t="n">
-        <v>1779.067954528026</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q37" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R37" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S37" t="n">
-        <v>1590.794278295998</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T37" t="n">
-        <v>1355.402764068014</v>
+        <v>1566.362923341979</v>
       </c>
       <c r="U37" t="n">
-        <v>1099.887788444332</v>
+        <v>1283.617846842937</v>
       </c>
       <c r="V37" t="n">
-        <v>1099.887788444332</v>
+        <v>1009.732101782459</v>
       </c>
       <c r="W37" t="n">
-        <v>820.8181239532063</v>
+        <v>730.6624372913329</v>
       </c>
       <c r="X37" t="n">
-        <v>820.8181239532063</v>
+        <v>492.3185751510163</v>
       </c>
       <c r="Y37" t="n">
-        <v>596.082425341971</v>
+        <v>492.3185751510163</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1007.772957040642</v>
+        <v>745.760069937036</v>
       </c>
       <c r="C38" t="n">
-        <v>597.6483663539117</v>
+        <v>745.760069937036</v>
       </c>
       <c r="D38" t="n">
-        <v>597.6483663539117</v>
+        <v>745.760069937036</v>
       </c>
       <c r="E38" t="n">
-        <v>597.6483663539117</v>
+        <v>745.760069937036</v>
       </c>
       <c r="F38" t="n">
-        <v>597.6483663539117</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="G38" t="n">
         <v>324.7296578907234</v>
@@ -7177,13 +7177,13 @@
         <v>143.8778192802977</v>
       </c>
       <c r="K38" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887698</v>
       </c>
       <c r="L38" t="n">
         <v>567.0076014019885</v>
       </c>
       <c r="M38" t="n">
-        <v>847.9396778919403</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N38" t="n">
         <v>1135.28612147837</v>
@@ -7201,25 +7201,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S38" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T38" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U38" t="n">
-        <v>1801.754437569962</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="V38" t="n">
-        <v>1801.754437569962</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="W38" t="n">
-        <v>1417.994136705131</v>
+        <v>862.542238490362</v>
       </c>
       <c r="X38" t="n">
-        <v>1417.994136705131</v>
+        <v>745.760069937036</v>
       </c>
       <c r="Y38" t="n">
-        <v>1417.994136705131</v>
+        <v>745.760069937036</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>575.9187410454915</v>
+        <v>681.7483020962025</v>
       </c>
       <c r="C39" t="n">
-        <v>441.9236697944372</v>
+        <v>547.7532308451481</v>
       </c>
       <c r="D39" t="n">
-        <v>325.0265120138296</v>
+        <v>430.8560730645405</v>
       </c>
       <c r="E39" t="n">
-        <v>204.5336960061576</v>
+        <v>310.3632570568685</v>
       </c>
       <c r="F39" t="n">
-        <v>95.57381618866216</v>
+        <v>201.4033772393731</v>
       </c>
       <c r="G39" t="n">
         <v>95.57381618866216</v>
@@ -7253,25 +7253,25 @@
         <v>54.86182750109194</v>
       </c>
       <c r="J39" t="n">
-        <v>355.1393949644895</v>
+        <v>111.4709909898562</v>
       </c>
       <c r="K39" t="n">
-        <v>483.5461759552825</v>
+        <v>239.8777719806492</v>
       </c>
       <c r="L39" t="n">
-        <v>674.9655685462453</v>
+        <v>431.297164571612</v>
       </c>
       <c r="M39" t="n">
-        <v>906.1825026402054</v>
+        <v>662.5140986655721</v>
       </c>
       <c r="N39" t="n">
-        <v>1235.559971964092</v>
+        <v>905.6861581884168</v>
       </c>
       <c r="O39" t="n">
-        <v>1449.01588185403</v>
+        <v>1119.142068078354</v>
       </c>
       <c r="P39" t="n">
-        <v>1612.503176317613</v>
+        <v>1282.629362541937</v>
       </c>
       <c r="Q39" t="n">
         <v>1701.572828547836</v>
@@ -7280,25 +7280,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S39" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T39" t="n">
-        <v>1647.090411268021</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U39" t="n">
-        <v>1478.894410448993</v>
+        <v>1363.382680207124</v>
       </c>
       <c r="V39" t="n">
-        <v>1265.182883442027</v>
+        <v>1363.382680207124</v>
       </c>
       <c r="W39" t="n">
-        <v>1051.949715178355</v>
+        <v>1157.779276229066</v>
       </c>
       <c r="X39" t="n">
-        <v>875.6237333172481</v>
+        <v>981.4532943679591</v>
       </c>
       <c r="Y39" t="n">
-        <v>716.2217736810782</v>
+        <v>822.0513347317891</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>920.2081959084696</v>
+        <v>196.9459038830798</v>
       </c>
       <c r="C40" t="n">
-        <v>749.1148234701861</v>
+        <v>196.9459038830798</v>
       </c>
       <c r="D40" t="n">
-        <v>589.6201787930961</v>
+        <v>196.9459038830798</v>
       </c>
       <c r="E40" t="n">
-        <v>428.7093636614156</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="F40" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G40" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H40" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I40" t="n">
         <v>36.03508875139925</v>
@@ -7338,19 +7338,19 @@
         <v>111.5999293467747</v>
       </c>
       <c r="L40" t="n">
-        <v>199.2930416725498</v>
+        <v>513.2721529075728</v>
       </c>
       <c r="M40" t="n">
-        <v>638.0390872734782</v>
+        <v>952.0181985085013</v>
       </c>
       <c r="N40" t="n">
-        <v>941.0168634017899</v>
+        <v>1378.784622469625</v>
       </c>
       <c r="O40" t="n">
-        <v>1335.365269788488</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P40" t="n">
-        <v>1656.374954878931</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q40" t="n">
         <v>1801.754437569962</v>
@@ -7359,25 +7359,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S40" t="n">
-        <v>1632.318839519271</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T40" t="n">
-        <v>1632.318839519271</v>
+        <v>1566.362923341979</v>
       </c>
       <c r="U40" t="n">
-        <v>1386.97756679364</v>
+        <v>1283.617846842937</v>
       </c>
       <c r="V40" t="n">
-        <v>1386.97756679364</v>
+        <v>1009.732101782459</v>
       </c>
       <c r="W40" t="n">
-        <v>1107.907902302514</v>
+        <v>730.6624372913329</v>
       </c>
       <c r="X40" t="n">
-        <v>1107.907902302514</v>
+        <v>492.3185751510163</v>
       </c>
       <c r="Y40" t="n">
-        <v>1107.907902302514</v>
+        <v>267.582876539781</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>904.743058980853</v>
+        <v>1161.107170096694</v>
       </c>
       <c r="C41" t="n">
-        <v>904.743058980853</v>
+        <v>1161.107170096694</v>
       </c>
       <c r="D41" t="n">
-        <v>904.743058980853</v>
+        <v>756.6432401897541</v>
       </c>
       <c r="E41" t="n">
-        <v>490.4028434977497</v>
+        <v>342.3030247066508</v>
       </c>
       <c r="F41" t="n">
-        <v>490.4028434977497</v>
+        <v>342.3030247066508</v>
       </c>
       <c r="G41" t="n">
-        <v>83.84362354124295</v>
+        <v>324.7296578907234</v>
       </c>
       <c r="H41" t="n">
         <v>36.03508875139924</v>
@@ -7420,7 +7420,7 @@
         <v>567.0076014019885</v>
       </c>
       <c r="M41" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919403</v>
       </c>
       <c r="N41" t="n">
         <v>1135.28612147837</v>
@@ -7438,25 +7438,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.900911697252</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.900911697252</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="U41" t="n">
-        <v>1715.900911697252</v>
+        <v>1544.867470961525</v>
       </c>
       <c r="V41" t="n">
-        <v>1715.900911697252</v>
+        <v>1544.867470961525</v>
       </c>
       <c r="W41" t="n">
-        <v>1715.900911697252</v>
+        <v>1161.107170096694</v>
       </c>
       <c r="X41" t="n">
-        <v>1715.900911697252</v>
+        <v>1161.107170096694</v>
       </c>
       <c r="Y41" t="n">
-        <v>1314.964238645342</v>
+        <v>1161.107170096694</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>488.2145034078852</v>
+        <v>673.6401790672932</v>
       </c>
       <c r="C42" t="n">
-        <v>488.2145034078852</v>
+        <v>547.7532308451481</v>
       </c>
       <c r="D42" t="n">
-        <v>371.3173456272776</v>
+        <v>430.8560730645405</v>
       </c>
       <c r="E42" t="n">
-        <v>250.8245296196056</v>
+        <v>310.3632570568685</v>
       </c>
       <c r="F42" t="n">
-        <v>141.8646498021101</v>
+        <v>201.403377239373</v>
       </c>
       <c r="G42" t="n">
-        <v>36.03508875139924</v>
+        <v>95.57381618866215</v>
       </c>
       <c r="H42" t="n">
         <v>36.03508875139924</v>
       </c>
       <c r="I42" t="n">
-        <v>54.86182750109193</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J42" t="n">
-        <v>355.1393949644894</v>
+        <v>336.3126562147968</v>
       </c>
       <c r="K42" t="n">
-        <v>483.5461759552824</v>
+        <v>464.7194372055898</v>
       </c>
       <c r="L42" t="n">
-        <v>674.9655685462453</v>
+        <v>656.1388297965526</v>
       </c>
       <c r="M42" t="n">
-        <v>906.1825026402054</v>
+        <v>887.3557638905127</v>
       </c>
       <c r="N42" t="n">
-        <v>1149.35456216305</v>
+        <v>1130.527823413358</v>
       </c>
       <c r="O42" t="n">
-        <v>1362.810472052988</v>
+        <v>1536.985598331011</v>
       </c>
       <c r="P42" t="n">
-        <v>1612.503176317612</v>
+        <v>1700.472892794593</v>
       </c>
       <c r="Q42" t="n">
-        <v>1701.572828547835</v>
+        <v>1789.542545024816</v>
       </c>
       <c r="R42" t="n">
         <v>1801.754437569962</v>
@@ -7529,13 +7529,13 @@
         <v>1149.671153200157</v>
       </c>
       <c r="W42" t="n">
-        <v>936.4379849364858</v>
+        <v>1149.671153200157</v>
       </c>
       <c r="X42" t="n">
-        <v>760.1120030753787</v>
+        <v>973.3451713390498</v>
       </c>
       <c r="Y42" t="n">
-        <v>628.5175360434719</v>
+        <v>813.9432117028798</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>843.1731568672192</v>
+        <v>508.9961658779976</v>
       </c>
       <c r="C43" t="n">
-        <v>843.1731568672192</v>
+        <v>337.9027934397141</v>
       </c>
       <c r="D43" t="n">
-        <v>683.6785121901291</v>
+        <v>337.9027934397141</v>
       </c>
       <c r="E43" t="n">
-        <v>522.7676970584487</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="F43" t="n">
-        <v>358.1365711690399</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="G43" t="n">
-        <v>264.0782377720069</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="H43" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I43" t="n">
         <v>36.03508875139924</v>
       </c>
       <c r="J43" t="n">
-        <v>52.5361799768018</v>
+        <v>55.59728818957745</v>
       </c>
       <c r="K43" t="n">
-        <v>111.5999293467747</v>
+        <v>320.9412311452645</v>
       </c>
       <c r="L43" t="n">
-        <v>513.2721529075728</v>
+        <v>722.6134547060626</v>
       </c>
       <c r="M43" t="n">
-        <v>952.0181985085013</v>
+        <v>1161.359500306991</v>
       </c>
       <c r="N43" t="n">
-        <v>1378.784622469625</v>
+        <v>1256.09162282053</v>
       </c>
       <c r="O43" t="n">
-        <v>1596.262753261606</v>
+        <v>1335.365269788488</v>
       </c>
       <c r="P43" t="n">
         <v>1656.37495487893</v>
@@ -7593,28 +7593,28 @@
         <v>1801.754437569962</v>
       </c>
       <c r="R43" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S43" t="n">
-        <v>1590.794278295997</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T43" t="n">
-        <v>1355.402764068014</v>
+        <v>1757.132056933923</v>
       </c>
       <c r="U43" t="n">
-        <v>1355.402764068014</v>
+        <v>1474.386980434881</v>
       </c>
       <c r="V43" t="n">
-        <v>1081.517019007536</v>
+        <v>1200.501235374403</v>
       </c>
       <c r="W43" t="n">
-        <v>1081.517019007536</v>
+        <v>921.4315708832772</v>
       </c>
       <c r="X43" t="n">
-        <v>843.1731568672192</v>
+        <v>921.4315708832772</v>
       </c>
       <c r="Y43" t="n">
-        <v>843.1731568672192</v>
+        <v>696.6958722720419</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1146.262720295332</v>
+        <v>1685.157783158827</v>
       </c>
       <c r="C44" t="n">
-        <v>1146.262720295332</v>
+        <v>1685.157783158827</v>
       </c>
       <c r="D44" t="n">
-        <v>741.7987903883923</v>
+        <v>1280.693853251887</v>
       </c>
       <c r="E44" t="n">
-        <v>327.4585749052889</v>
+        <v>866.353637768784</v>
       </c>
       <c r="F44" t="n">
-        <v>327.4585749052889</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="G44" t="n">
-        <v>327.4585749052889</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="H44" t="n">
         <v>38.76400576596472</v>
@@ -7651,19 +7651,19 @@
         <v>143.8778192802977</v>
       </c>
       <c r="K44" t="n">
-        <v>326.0552168887691</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L44" t="n">
-        <v>567.0076014019879</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M44" t="n">
-        <v>847.9396778919397</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N44" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O44" t="n">
-        <v>1401.218439165989</v>
+        <v>1401.21843916599</v>
       </c>
       <c r="P44" t="n">
         <v>1614.21261440288</v>
@@ -7681,19 +7681,19 @@
         <v>1715.900911697252</v>
       </c>
       <c r="U44" t="n">
-        <v>1459.013945088815</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="V44" t="n">
-        <v>1459.013945088815</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="W44" t="n">
-        <v>1459.013945088815</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="X44" t="n">
-        <v>1459.013945088815</v>
+        <v>1685.157783158827</v>
       </c>
       <c r="Y44" t="n">
-        <v>1146.262720295332</v>
+        <v>1685.157783158827</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>564.8511443155949</v>
+        <v>673.6401790672932</v>
       </c>
       <c r="C45" t="n">
-        <v>430.8560730645405</v>
+        <v>539.6451078162388</v>
       </c>
       <c r="D45" t="n">
-        <v>430.8560730645405</v>
+        <v>422.7479500356312</v>
       </c>
       <c r="E45" t="n">
-        <v>310.3632570568685</v>
+        <v>302.2551340279592</v>
       </c>
       <c r="F45" t="n">
-        <v>201.403377239373</v>
+        <v>193.2952542104638</v>
       </c>
       <c r="G45" t="n">
         <v>95.57381618866215</v>
@@ -7724,55 +7724,55 @@
         <v>36.03508875139924</v>
       </c>
       <c r="I45" t="n">
-        <v>36.03508875139924</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J45" t="n">
-        <v>211.7870789347398</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K45" t="n">
-        <v>657.7213022333054</v>
+        <v>483.5461759552824</v>
       </c>
       <c r="L45" t="n">
-        <v>849.1406948242683</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M45" t="n">
-        <v>1080.357628918228</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N45" t="n">
-        <v>1323.529688441073</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O45" t="n">
-        <v>1536.985598331011</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P45" t="n">
-        <v>1700.472892794593</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q45" t="n">
-        <v>1789.542545024816</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R45" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S45" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T45" t="n">
-        <v>1647.09041126802</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U45" t="n">
-        <v>1449.815952487486</v>
+        <v>1363.382680207123</v>
       </c>
       <c r="V45" t="n">
-        <v>1236.104425480519</v>
+        <v>1149.671153200157</v>
       </c>
       <c r="W45" t="n">
-        <v>1022.871257216848</v>
+        <v>1149.671153200157</v>
       </c>
       <c r="X45" t="n">
-        <v>846.5452753557411</v>
+        <v>973.3451713390498</v>
       </c>
       <c r="Y45" t="n">
-        <v>705.1541769511815</v>
+        <v>813.9432117028798</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>454.0298976739516</v>
+        <v>999.3993600136666</v>
       </c>
       <c r="C46" t="n">
-        <v>454.0298976739516</v>
+        <v>828.3059875753831</v>
       </c>
       <c r="D46" t="n">
-        <v>454.0298976739516</v>
+        <v>668.8113428982931</v>
       </c>
       <c r="E46" t="n">
-        <v>454.0298976739516</v>
+        <v>507.9005277666125</v>
       </c>
       <c r="F46" t="n">
-        <v>289.3987717845429</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="G46" t="n">
-        <v>123.1213482153726</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="H46" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I46" t="n">
         <v>36.03508875139924</v>
       </c>
       <c r="J46" t="n">
-        <v>52.5361799768018</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K46" t="n">
-        <v>317.8801229324888</v>
+        <v>374.9827251929166</v>
       </c>
       <c r="L46" t="n">
-        <v>719.5523464932869</v>
+        <v>462.6758375186917</v>
       </c>
       <c r="M46" t="n">
-        <v>1158.298392094215</v>
+        <v>901.4218831196201</v>
       </c>
       <c r="N46" t="n">
-        <v>1516.989106293648</v>
+        <v>1328.188307080744</v>
       </c>
       <c r="O46" t="n">
-        <v>1596.262753261606</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P46" t="n">
-        <v>1656.37495487893</v>
+        <v>1782.648915084767</v>
       </c>
       <c r="Q46" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R46" t="n">
-        <v>1801.754437569962</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="S46" t="n">
-        <v>1801.754437569962</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="T46" t="n">
-        <v>1566.362923341978</v>
+        <v>1524.838362118705</v>
       </c>
       <c r="U46" t="n">
-        <v>1419.420712230835</v>
+        <v>1524.838362118705</v>
       </c>
       <c r="V46" t="n">
-        <v>1145.534967170357</v>
+        <v>1524.838362118705</v>
       </c>
       <c r="W46" t="n">
-        <v>866.4653026792313</v>
+        <v>1411.834765018946</v>
       </c>
       <c r="X46" t="n">
-        <v>866.4653026792313</v>
+        <v>1411.834765018946</v>
       </c>
       <c r="Y46" t="n">
-        <v>641.729604067996</v>
+        <v>1187.099066407711</v>
       </c>
     </row>
   </sheetData>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>320.7347902098714</v>
+        <v>175.9344709879025</v>
       </c>
       <c r="L12" t="n">
-        <v>31.48799011878324</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>310.2787859069014</v>
+        <v>266.0432281274166</v>
       </c>
       <c r="M13" t="n">
         <v>348.4508580952379</v>
@@ -8862,7 +8862,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>47.90594438453786</v>
+        <v>87.07617151620377</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>285.2999281161446</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>285.8849435310353</v>
       </c>
       <c r="P16" t="n">
-        <v>139.6004887111345</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
         <v>127.5494547533709</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>257.085687583437</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>183.9953922169149</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9330,13 +9330,13 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>241.6493857515509</v>
       </c>
       <c r="O19" t="n">
-        <v>211.4558604025149</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
         <v>263.5328115890082</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>352.2227803286546</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9561,13 +9561,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>317.1506174091142</v>
+        <v>200.3852850654606</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
         <v>335.3881832803894</v>
@@ -9576,7 +9576,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>23.32169384682239</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>183.9953922169157</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>87.07617151620377</v>
       </c>
       <c r="L24" t="n">
-        <v>257.0856875834372</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,22 +9798,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>158.860592155408</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
-        <v>335.3881832803894</v>
+        <v>200.9668970248053</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>127.5494547533709</v>
@@ -9953,16 +9953,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>320.7347902098714</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>101.3293817625091</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>87.07617151620369</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
-        <v>144.6912020034713</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10044,16 +10044,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>327.4096364410877</v>
       </c>
       <c r="O28" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>80.61181609495588</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>360.4692637053963</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
         <v>348.4508580952379</v>
@@ -10284,13 +10284,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
-        <v>318.2573327462026</v>
+        <v>267.149943464505</v>
       </c>
       <c r="P31" t="n">
-        <v>138.4937733740455</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>216.8861507117228</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>205.1780212606571</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>297.3434688135402</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>267.6473776597601</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>360.4692637053964</v>
+        <v>333.2058725006822</v>
       </c>
       <c r="R36" t="n">
-        <v>61.59490826698406</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>266.0432281274165</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10758,13 +10758,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.617131875496948</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>87.07617151620417</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>333.2058725006822</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10986,22 +10986,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
-        <v>210.3491450654273</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>318.2573327462026</v>
+        <v>267.149943464505</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.76545843403778</v>
+        <v>0.7485506060653648</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>194.9513788158741</v>
       </c>
       <c r="P42" t="n">
-        <v>87.0761715162038</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.092028497753184</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11229,13 +11229,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>139.6004887111338</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>120.3462895904811</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>320.7347902098713</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>87.07617151620369</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>200.3852850654602</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>266.6248400867614</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23272,13 +23272,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>285.807623447931</v>
+        <v>276.1781408311443</v>
       </c>
       <c r="I11" t="n">
-        <v>2.701627844419818</v>
+        <v>2.701627844419832</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>111.9625244338102</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23342,13 +23342,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>111.2575973603338</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>133.5589388220954</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>164.6146493334786</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.10931561104033</v>
+        <v>41.10931561104034</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>38.30711214544195</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>112.1481759430368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23503,10 +23503,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>50.41465604489412</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>402.4936277569416</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T14" t="n">
         <v>210.5842916762861</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>311.8897122071014</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>28.78767338189209</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>86.47275784111014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>104.3463666540895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S16" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U16" t="n">
-        <v>92.56763657435414</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>156.8785445905006</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>95.86796462694718</v>
       </c>
       <c r="I17" t="n">
         <v>2.701627844419818</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>44.4563520139623</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>80.22787607042383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.0821537445473</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23901,7 +23901,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>40.83861350526986</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>164.6146493334786</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,13 +23971,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>53.24715154861923</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>303.2015971554663</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>44.56515633715806</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>55.41327277656012</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.644538560124033</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>79.28734307844225</v>
       </c>
       <c r="H22" t="n">
         <v>139.5473206610679</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>285.807623447931</v>
+        <v>176.0766128408815</v>
       </c>
       <c r="I23" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>258.6118465368343</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24338,13 +24338,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>111.2575973603338</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>55.41327277656063</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.6146493334786</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.144538318956</v>
       </c>
       <c r="I25" t="n">
         <v>86.2153968693336</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>229.8503769065139</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>395.0010092759345</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -24451,13 +24451,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>84.59180374928155</v>
       </c>
       <c r="G26" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>285.807623447931</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,16 +24530,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>25.68865780277527</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>21.28453590753307</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24618,10 +24618,10 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H28" t="n">
-        <v>98.92787861012675</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I28" t="n">
-        <v>86.2153968693336</v>
+        <v>24.72432902902082</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>280.0308568528576</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>134.4032377777239</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I29" t="n">
         <v>2.701627844419818</v>
@@ -24742,10 +24742,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>114.3566129394508</v>
+        <v>86.47275784111035</v>
       </c>
     </row>
     <row r="31">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>81.32652683770864</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>190.4562178325753</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>296.2923341728129</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>262.1415635597556</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I32" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>23.82616418692518</v>
+        <v>23.82616418692474</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25089,13 +25089,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6146493334786</v>
+        <v>69.44654772088981</v>
       </c>
       <c r="H34" t="n">
-        <v>66.05966552057308</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>349.883648521654</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>402.4936277569416</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>356.0147670416169</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25241,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>114.3566129394503</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7712654402038</v>
+        <v>7.553466642757584</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>40.17613474207744</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>26.95779986660605</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25402,10 +25402,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>132.3041063783853</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>281.0226169849442</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25484,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>28.78767338189161</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>7.553466642757627</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>115.8921063999697</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>164.6146493334786</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>41.10931561104033</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T40" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>37.02976573567659</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>385.0959946091735</v>
       </c>
       <c r="H41" t="n">
-        <v>238.4771740059857</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>2.701627844419818</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T41" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>8.027041798620132</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>58.94334016289027</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>27.52941767822057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>71.49689927041588</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>188.8614422560251</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>210.5842916762861</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25930,10 +25930,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>366.2012665996958</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.30359377584216</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>8.027041798620147</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26006,13 +26006,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.83075261929432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>167.7412420701844</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>134.4448367340198</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>164.4054067174532</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>370846.5652240301</v>
+        <v>370846.5652240299</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>370846.5652240302</v>
+        <v>370846.56522403</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>370846.5652240301</v>
+        <v>370846.56522403</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>370846.5652240301</v>
+        <v>370846.5652240299</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>370846.56522403</v>
+        <v>370846.5652240301</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>370846.5652240301</v>
+        <v>370846.5652240299</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370846.5652240301</v>
+        <v>370846.5652240299</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>534608.0007494115</v>
       </c>
       <c r="C2" t="n">
-        <v>534608.0007494116</v>
+        <v>534608.0007494114</v>
       </c>
       <c r="D2" t="n">
         <v>534608.0007494114</v>
@@ -26325,19 +26325,19 @@
         <v>305539.3585589597</v>
       </c>
       <c r="F2" t="n">
-        <v>305539.3585589599</v>
+        <v>305539.3585589596</v>
       </c>
       <c r="G2" t="n">
+        <v>305539.3585589597</v>
+      </c>
+      <c r="H2" t="n">
+        <v>305539.3585589598</v>
+      </c>
+      <c r="I2" t="n">
         <v>305539.3585589596</v>
       </c>
-      <c r="H2" t="n">
-        <v>305539.3585589597</v>
-      </c>
-      <c r="I2" t="n">
-        <v>305539.3585589598</v>
-      </c>
       <c r="J2" t="n">
-        <v>305539.3585589598</v>
+        <v>305539.3585589596</v>
       </c>
       <c r="K2" t="n">
         <v>305539.3585589597</v>
@@ -26346,7 +26346,7 @@
         <v>305539.3585589597</v>
       </c>
       <c r="M2" t="n">
-        <v>305539.3585589597</v>
+        <v>305539.3585589598</v>
       </c>
       <c r="N2" t="n">
         <v>305539.3585589597</v>
@@ -26355,7 +26355,7 @@
         <v>305539.3585589597</v>
       </c>
       <c r="P2" t="n">
-        <v>305539.3585589596</v>
+        <v>305539.3585589597</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>563636.1310597794</v>
+        <v>563636.1310597793</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>28662.73142296552</v>
       </c>
       <c r="F4" t="n">
-        <v>28662.73142296553</v>
+        <v>28662.73142296551</v>
       </c>
       <c r="G4" t="n">
+        <v>28662.73142296552</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28662.73142296552</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28662.7314229655</v>
+      </c>
+      <c r="J4" t="n">
         <v>28662.73142296549</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>28662.73142296552</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28662.73142296552</v>
+      </c>
+      <c r="M4" t="n">
         <v>28662.73142296551</v>
       </c>
-      <c r="I4" t="n">
-        <v>28662.73142296552</v>
-      </c>
-      <c r="J4" t="n">
-        <v>28662.73142296552</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
+        <v>28662.73142296551</v>
+      </c>
+      <c r="O4" t="n">
+        <v>28662.73142296549</v>
+      </c>
+      <c r="P4" t="n">
         <v>28662.7314229655</v>
-      </c>
-      <c r="L4" t="n">
-        <v>28662.73142296551</v>
-      </c>
-      <c r="M4" t="n">
-        <v>28662.73142296552</v>
-      </c>
-      <c r="N4" t="n">
-        <v>28662.73142296552</v>
-      </c>
-      <c r="O4" t="n">
-        <v>28662.73142296551</v>
-      </c>
-      <c r="P4" t="n">
-        <v>28662.73142296551</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>39031.33714783083</v>
       </c>
       <c r="F5" t="n">
-        <v>39031.33714783084</v>
+        <v>39031.33714783083</v>
       </c>
       <c r="G5" t="n">
         <v>39031.33714783083</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131117.8005517218</v>
+        <v>131109.0008660924</v>
       </c>
       <c r="C6" t="n">
-        <v>131117.8005517219</v>
+        <v>131109.0008660924</v>
       </c>
       <c r="D6" t="n">
-        <v>131117.8005517217</v>
+        <v>131109.0008660923</v>
       </c>
       <c r="E6" t="n">
-        <v>-325790.8410716161</v>
+        <v>-326493.7881578224</v>
       </c>
       <c r="F6" t="n">
-        <v>237845.2899881635</v>
+        <v>237142.3429019568</v>
       </c>
       <c r="G6" t="n">
-        <v>237845.2899881635</v>
+        <v>237142.3429019568</v>
       </c>
       <c r="H6" t="n">
-        <v>237845.2899881634</v>
+        <v>237142.3429019569</v>
       </c>
       <c r="I6" t="n">
-        <v>237845.2899881635</v>
+        <v>237142.3429019567</v>
       </c>
       <c r="J6" t="n">
-        <v>237845.2899881635</v>
+        <v>237142.3429019568</v>
       </c>
       <c r="K6" t="n">
-        <v>237845.2899881635</v>
+        <v>237142.3429019568</v>
       </c>
       <c r="L6" t="n">
-        <v>237845.2899881633</v>
+        <v>237142.3429019568</v>
       </c>
       <c r="M6" t="n">
-        <v>125594.1867731171</v>
+        <v>124891.2396869107</v>
       </c>
       <c r="N6" t="n">
-        <v>237845.2899881634</v>
+        <v>237142.3429019568</v>
       </c>
       <c r="O6" t="n">
-        <v>237845.2899881635</v>
+        <v>237142.3429019569</v>
       </c>
       <c r="P6" t="n">
-        <v>237845.2899881633</v>
+        <v>237142.3429019568</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>534.1591604021746</v>
+        <v>534.1591604021745</v>
       </c>
       <c r="F3" t="n">
         <v>534.1591604021746</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>450.4386093924905</v>
+      </c>
+      <c r="F4" t="n">
+        <v>450.4386093924905</v>
+      </c>
+      <c r="G4" t="n">
         <v>450.4386093924906</v>
-      </c>
-      <c r="F4" t="n">
-        <v>450.4386093924907</v>
-      </c>
-      <c r="G4" t="n">
-        <v>450.4386093924904</v>
       </c>
       <c r="H4" t="n">
         <v>450.4386093924906</v>
       </c>
       <c r="I4" t="n">
+        <v>450.4386093924905</v>
+      </c>
+      <c r="J4" t="n">
+        <v>450.4386093924905</v>
+      </c>
+      <c r="K4" t="n">
         <v>450.4386093924906</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>450.4386093924906</v>
-      </c>
-      <c r="K4" t="n">
-        <v>450.4386093924905</v>
-      </c>
-      <c r="L4" t="n">
-        <v>450.4386093924905</v>
       </c>
       <c r="M4" t="n">
         <v>450.4386093924906</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>534.1591604021746</v>
+        <v>534.1591604021745</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>450.4386093924907</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4386093924907</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4386093924907</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>21.99178895062821</v>
       </c>
       <c r="I11" t="n">
-        <v>82.78661721167775</v>
+        <v>82.78661721167774</v>
       </c>
       <c r="J11" t="n">
         <v>182.2556423725993</v>
@@ -31767,31 +31767,31 @@
         <v>273.153963015108</v>
       </c>
       <c r="L11" t="n">
-        <v>338.8716450458942</v>
+        <v>338.8716450458941</v>
       </c>
       <c r="M11" t="n">
-        <v>377.05999868932</v>
+        <v>377.0599986893199</v>
       </c>
       <c r="N11" t="n">
-        <v>383.1612236722052</v>
+        <v>383.161223672205</v>
       </c>
       <c r="O11" t="n">
-        <v>361.8082783405504</v>
+        <v>361.8082783405503</v>
       </c>
       <c r="P11" t="n">
-        <v>308.7949948332994</v>
+        <v>308.7949948332993</v>
       </c>
       <c r="Q11" t="n">
         <v>231.8921810367048</v>
       </c>
       <c r="R11" t="n">
-        <v>134.8899511944246</v>
+        <v>134.8899511944245</v>
       </c>
       <c r="S11" t="n">
         <v>48.93327383985751</v>
       </c>
       <c r="T11" t="n">
-        <v>9.400127536323694</v>
+        <v>9.400127536323692</v>
       </c>
       <c r="U11" t="n">
         <v>0.1717898807323575</v>
@@ -31837,13 +31837,13 @@
         <v>11.09640067175084</v>
       </c>
       <c r="I12" t="n">
-        <v>39.55801329393464</v>
+        <v>39.55801329393463</v>
       </c>
       <c r="J12" t="n">
         <v>108.550212020974</v>
       </c>
       <c r="K12" t="n">
-        <v>185.5296019672346</v>
+        <v>185.5296019672345</v>
       </c>
       <c r="L12" t="n">
         <v>249.4674456199024</v>
@@ -31855,25 +31855,25 @@
         <v>298.8217363461184</v>
       </c>
       <c r="O12" t="n">
-        <v>273.3635091918563</v>
+        <v>273.3635091918562</v>
       </c>
       <c r="P12" t="n">
         <v>219.3983162791498</v>
       </c>
       <c r="Q12" t="n">
-        <v>146.661964191933</v>
+        <v>146.6619641919329</v>
       </c>
       <c r="R12" t="n">
-        <v>71.33544410050176</v>
+        <v>71.33544410050175</v>
       </c>
       <c r="S12" t="n">
-        <v>21.34117022927555</v>
+        <v>21.34117022927554</v>
       </c>
       <c r="T12" t="n">
-        <v>4.631059135939607</v>
+        <v>4.631059135939606</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07558856043427002</v>
+        <v>0.07558856043427001</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9632378302334296</v>
+        <v>0.9632378302334293</v>
       </c>
       <c r="H13" t="n">
-        <v>8.564059981529953</v>
+        <v>8.564059981529951</v>
       </c>
       <c r="I13" t="n">
-        <v>28.96718856738351</v>
+        <v>28.9671885673835</v>
       </c>
       <c r="J13" t="n">
-        <v>68.10091459750346</v>
+        <v>68.10091459750345</v>
       </c>
       <c r="K13" t="n">
         <v>111.9107224580293</v>
       </c>
       <c r="L13" t="n">
-        <v>143.2071952330683</v>
+        <v>143.2071952330682</v>
       </c>
       <c r="M13" t="n">
         <v>150.9919082428638</v>
@@ -31937,22 +31937,22 @@
         <v>136.1492889497215</v>
       </c>
       <c r="P13" t="n">
-        <v>116.4992372129595</v>
+        <v>116.4992372129594</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.65803322072837</v>
+        <v>80.65803322072834</v>
       </c>
       <c r="R13" t="n">
-        <v>43.31067553031401</v>
+        <v>43.310675530314</v>
       </c>
       <c r="S13" t="n">
         <v>16.7866083687044</v>
       </c>
       <c r="T13" t="n">
-        <v>4.115652547361016</v>
+        <v>4.115652547361015</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05254024528545986</v>
+        <v>0.05254024528545984</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34149,7 +34149,7 @@
         <v>361.8082783405504</v>
       </c>
       <c r="P41" t="n">
-        <v>308.7949948332994</v>
+        <v>308.794994833299</v>
       </c>
       <c r="Q41" t="n">
         <v>231.8921810367048</v>
@@ -34371,7 +34371,7 @@
         <v>182.2556423725993</v>
       </c>
       <c r="K44" t="n">
-        <v>273.1539630151074</v>
+        <v>273.153963015108</v>
       </c>
       <c r="L44" t="n">
         <v>338.8716450458942</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>108.9320510392914</v>
+        <v>108.9320510392913</v>
       </c>
       <c r="K11" t="n">
         <v>184.0175733418909</v>
       </c>
       <c r="L11" t="n">
-        <v>243.3862469830494</v>
+        <v>243.3862469830493</v>
       </c>
       <c r="M11" t="n">
         <v>283.7697742322745</v>
       </c>
       <c r="N11" t="n">
-        <v>290.2489329155858</v>
+        <v>290.2489329155857</v>
       </c>
       <c r="O11" t="n">
-        <v>268.6185027147673</v>
+        <v>268.6185027147671</v>
       </c>
       <c r="P11" t="n">
         <v>215.1456315524152</v>
@@ -35433,7 +35433,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R11" t="n">
-        <v>47.57780837970104</v>
+        <v>47.57780837970101</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>19.0169078279724</v>
       </c>
       <c r="J12" t="n">
-        <v>57.180973220974</v>
+        <v>303.310674205452</v>
       </c>
       <c r="K12" t="n">
-        <v>450.4386093924906</v>
+        <v>305.6382901705216</v>
       </c>
       <c r="L12" t="n">
-        <v>224.8409119278366</v>
+        <v>193.3529218090533</v>
       </c>
       <c r="M12" t="n">
-        <v>233.5524586807677</v>
+        <v>233.5524586807676</v>
       </c>
       <c r="N12" t="n">
         <v>245.6283429523684</v>
       </c>
       <c r="O12" t="n">
-        <v>215.6120301918563</v>
+        <v>215.6120301918562</v>
       </c>
       <c r="P12" t="n">
-        <v>165.1386812763461</v>
+        <v>165.138681276346</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.96934568709423</v>
+        <v>89.9693456870942</v>
       </c>
       <c r="R12" t="n">
-        <v>101.1935444667946</v>
+        <v>12.33524499509634</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454803</v>
       </c>
       <c r="K13" t="n">
-        <v>268.0241848037243</v>
+        <v>59.66035289896249</v>
       </c>
       <c r="L13" t="n">
-        <v>398.8576872460681</v>
+        <v>354.6221294665833</v>
       </c>
       <c r="M13" t="n">
         <v>443.1778238393217</v>
@@ -35582,13 +35582,13 @@
         <v>431.0771959203275</v>
       </c>
       <c r="O13" t="n">
-        <v>80.0743908767252</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P13" t="n">
-        <v>60.71939557305469</v>
+        <v>60.71939557305466</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.2985075608028</v>
+        <v>19.29850756080278</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J15" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K15" t="n">
-        <v>177.609763567157</v>
+        <v>216.779990698823</v>
       </c>
       <c r="L15" t="n">
         <v>193.3529218090534</v>
@@ -35743,7 +35743,7 @@
         <v>215.6120301918563</v>
       </c>
       <c r="P15" t="n">
-        <v>450.4386093924907</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q15" t="n">
         <v>89.96934568709423</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.66776891454804</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K16" t="n">
-        <v>59.66035289896251</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L16" t="n">
         <v>405.729518748281</v>
       </c>
       <c r="M16" t="n">
-        <v>443.1778238393217</v>
+        <v>94.7269657440838</v>
       </c>
       <c r="N16" t="n">
-        <v>431.0771959203275</v>
+        <v>95.6890126399381</v>
       </c>
       <c r="O16" t="n">
-        <v>80.0743908767252</v>
+        <v>365.9593344077605</v>
       </c>
       <c r="P16" t="n">
-        <v>200.3198842841892</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q16" t="n">
         <v>146.8479623141737</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J18" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K18" t="n">
         <v>129.7038191826192</v>
       </c>
       <c r="L18" t="n">
-        <v>450.4386093924904</v>
+        <v>193.3529218090534</v>
       </c>
       <c r="M18" t="n">
-        <v>417.5478508976826</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N18" t="n">
-        <v>245.6283429523684</v>
+        <v>332.7045144685726</v>
       </c>
       <c r="O18" t="n">
         <v>215.6120301918563</v>
@@ -35986,7 +35986,7 @@
         <v>89.96934568709423</v>
       </c>
       <c r="R18" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36050,13 +36050,13 @@
         <v>405.729518748281</v>
       </c>
       <c r="M19" t="n">
-        <v>443.1778238393217</v>
+        <v>94.7269657440838</v>
       </c>
       <c r="N19" t="n">
-        <v>95.6890126399381</v>
+        <v>337.338398391489</v>
       </c>
       <c r="O19" t="n">
-        <v>291.5302512792401</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P19" t="n">
         <v>324.2522071620629</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J21" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K21" t="n">
         <v>129.7038191826192</v>
@@ -36220,7 +36220,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q21" t="n">
-        <v>442.1921260157488</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R21" t="n">
         <v>101.1935444667946</v>
@@ -36281,13 +36281,13 @@
         <v>82.32571197650398</v>
       </c>
       <c r="K22" t="n">
-        <v>268.0241848037243</v>
+        <v>59.66035289896251</v>
       </c>
       <c r="L22" t="n">
-        <v>405.729518748281</v>
+        <v>288.9641864046273</v>
       </c>
       <c r="M22" t="n">
-        <v>94.7269657440838</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N22" t="n">
         <v>431.0771959203275</v>
@@ -36296,7 +36296,7 @@
         <v>398.3317236229277</v>
       </c>
       <c r="P22" t="n">
-        <v>84.04108941987708</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q22" t="n">
         <v>19.2985075608028</v>
@@ -36360,7 +36360,7 @@
         <v>108.9320510392914</v>
       </c>
       <c r="K23" t="n">
-        <v>184.0175733418907</v>
+        <v>184.0175733418909</v>
       </c>
       <c r="L23" t="n">
         <v>243.3862469830494</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J24" t="n">
-        <v>241.1763654378897</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K24" t="n">
-        <v>129.7038191826192</v>
+        <v>216.779990698823</v>
       </c>
       <c r="L24" t="n">
-        <v>450.4386093924906</v>
+        <v>193.3529218090534</v>
       </c>
       <c r="M24" t="n">
         <v>233.5524586807677</v>
@@ -36460,7 +36460,7 @@
         <v>89.96934568709423</v>
       </c>
       <c r="R24" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>82.32571197650398</v>
       </c>
       <c r="K25" t="n">
-        <v>218.5209450543705</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L25" t="n">
         <v>405.729518748281</v>
       </c>
       <c r="M25" t="n">
-        <v>94.7269657440838</v>
+        <v>443.1778238393217</v>
       </c>
       <c r="N25" t="n">
-        <v>431.0771959203275</v>
+        <v>296.6559096647434</v>
       </c>
       <c r="O25" t="n">
         <v>80.0743908767252</v>
       </c>
       <c r="P25" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q25" t="n">
         <v>146.8479623141737</v>
@@ -36673,16 +36673,16 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J27" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K27" t="n">
-        <v>450.4386093924906</v>
+        <v>129.7038191826192</v>
       </c>
       <c r="L27" t="n">
         <v>193.3529218090534</v>
       </c>
       <c r="M27" t="n">
-        <v>334.8818404432768</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N27" t="n">
         <v>245.6283429523684</v>
@@ -36694,10 +36694,10 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R27" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>82.32571197650398</v>
       </c>
       <c r="K28" t="n">
-        <v>204.3515549024338</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L28" t="n">
         <v>88.57890133916675</v>
@@ -36764,16 +36764,16 @@
         <v>443.1778238393217</v>
       </c>
       <c r="N28" t="n">
-        <v>95.6890126399381</v>
+        <v>423.0986490810258</v>
       </c>
       <c r="O28" t="n">
         <v>398.3317236229277</v>
       </c>
       <c r="P28" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q28" t="n">
-        <v>146.8479623141737</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J30" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K30" t="n">
         <v>129.7038191826192</v>
@@ -36928,13 +36928,13 @@
         <v>215.6120301918563</v>
       </c>
       <c r="P30" t="n">
-        <v>245.7504973713019</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q30" t="n">
-        <v>450.4386093924905</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R30" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>59.66035289896251</v>
       </c>
       <c r="L31" t="n">
-        <v>88.57890133916675</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M31" t="n">
         <v>443.1778238393217</v>
@@ -37004,13 +37004,13 @@
         <v>431.0771959203275</v>
       </c>
       <c r="O31" t="n">
-        <v>398.3317236229277</v>
+        <v>347.2243343412302</v>
       </c>
       <c r="P31" t="n">
-        <v>199.2131689471002</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q31" t="n">
-        <v>146.8479623141737</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>108.9320510392907</v>
+        <v>108.9320510392914</v>
       </c>
       <c r="K32" t="n">
         <v>184.0175733418909</v>
@@ -37092,7 +37092,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R32" t="n">
-        <v>47.57780837970104</v>
+        <v>47.57780837970112</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J33" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K33" t="n">
         <v>129.7038191826192</v>
@@ -37156,22 +37156,22 @@
         <v>193.3529218090534</v>
       </c>
       <c r="M33" t="n">
-        <v>450.4386093924905</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N33" t="n">
         <v>245.6283429523684</v>
       </c>
       <c r="O33" t="n">
-        <v>420.7900514525134</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P33" t="n">
         <v>165.1386812763461</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R33" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454804</v>
       </c>
       <c r="K34" t="n">
-        <v>268.0241848037243</v>
+        <v>59.66035289896251</v>
       </c>
       <c r="L34" t="n">
-        <v>88.57890133916675</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M34" t="n">
-        <v>94.7269657440838</v>
+        <v>392.070434557624</v>
       </c>
       <c r="N34" t="n">
         <v>431.0771959203275</v>
       </c>
       <c r="O34" t="n">
-        <v>347.7217685364853</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P34" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q34" t="n">
-        <v>146.8479623141737</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q36" t="n">
-        <v>450.4386093924906</v>
+        <v>423.1752181877765</v>
       </c>
       <c r="R36" t="n">
-        <v>73.93015326208041</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>59.66035289896251</v>
       </c>
       <c r="L37" t="n">
-        <v>405.729518748281</v>
+        <v>354.6221294665832</v>
       </c>
       <c r="M37" t="n">
         <v>443.1778238393217</v>
@@ -37478,13 +37478,13 @@
         <v>431.0771959203275</v>
       </c>
       <c r="O37" t="n">
-        <v>80.0743908767252</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P37" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.91563943629975</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R38" t="n">
-        <v>47.57780837970112</v>
+        <v>47.57780837970104</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J39" t="n">
-        <v>303.3106742054521</v>
+        <v>57.180973220974</v>
       </c>
       <c r="K39" t="n">
         <v>129.7038191826192</v>
@@ -37633,7 +37633,7 @@
         <v>233.5524586807677</v>
       </c>
       <c r="N39" t="n">
-        <v>332.7045144685726</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O39" t="n">
         <v>215.6120301918563</v>
@@ -37642,7 +37642,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.96934568709423</v>
+        <v>423.1752181877765</v>
       </c>
       <c r="R39" t="n">
         <v>101.1935444667946</v>
@@ -37706,22 +37706,22 @@
         <v>59.66035289896251</v>
       </c>
       <c r="L40" t="n">
-        <v>88.57890133916675</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M40" t="n">
         <v>443.1778238393217</v>
       </c>
       <c r="N40" t="n">
-        <v>306.0381577053653</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O40" t="n">
-        <v>398.3317236229277</v>
+        <v>347.2243343412302</v>
       </c>
       <c r="P40" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q40" t="n">
-        <v>146.8479623141737</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>268.6185027147673</v>
       </c>
       <c r="P41" t="n">
-        <v>215.1456315524152</v>
+        <v>215.1456315524148</v>
       </c>
       <c r="Q41" t="n">
         <v>141.8583766375528</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.01690782797241</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>303.3106742054521</v>
@@ -37873,16 +37873,16 @@
         <v>245.6283429523684</v>
       </c>
       <c r="O42" t="n">
-        <v>215.6120301918563</v>
+        <v>410.5634090077304</v>
       </c>
       <c r="P42" t="n">
-        <v>252.2148527925499</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q42" t="n">
         <v>89.96934568709423</v>
       </c>
       <c r="R42" t="n">
-        <v>101.1935444667946</v>
+        <v>12.33524499509635</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.66776891454804</v>
+        <v>19.75979741230122</v>
       </c>
       <c r="K43" t="n">
-        <v>59.66035289896251</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L43" t="n">
         <v>405.729518748281</v>
@@ -37949,13 +37949,13 @@
         <v>443.1778238393217</v>
       </c>
       <c r="N43" t="n">
-        <v>431.0771959203275</v>
+        <v>95.6890126399381</v>
       </c>
       <c r="O43" t="n">
-        <v>219.674879587859</v>
+        <v>80.0743908767252</v>
       </c>
       <c r="P43" t="n">
-        <v>60.71939557305469</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q43" t="n">
         <v>146.8479623141737</v>
@@ -38019,7 +38019,7 @@
         <v>108.9320510392914</v>
       </c>
       <c r="K44" t="n">
-        <v>184.0175733418903</v>
+        <v>184.0175733418909</v>
       </c>
       <c r="L44" t="n">
         <v>243.3862469830494</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J45" t="n">
-        <v>177.5272628114551</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K45" t="n">
-        <v>450.4386093924905</v>
+        <v>129.7038191826192</v>
       </c>
       <c r="L45" t="n">
         <v>193.3529218090534</v>
@@ -38116,10 +38116,10 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R45" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.66776891454804</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K46" t="n">
-        <v>268.0241848037243</v>
+        <v>260.0456379644227</v>
       </c>
       <c r="L46" t="n">
-        <v>405.729518748281</v>
+        <v>88.57890133916675</v>
       </c>
       <c r="M46" t="n">
         <v>443.1778238393217</v>
       </c>
       <c r="N46" t="n">
-        <v>362.3138527266995</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O46" t="n">
-        <v>80.0743908767252</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P46" t="n">
         <v>60.71939557305469</v>
       </c>
       <c r="Q46" t="n">
-        <v>146.8479623141737</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
